--- a/design/RAV.xlsx
+++ b/design/RAV.xlsx
@@ -5,28 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hello\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hello\source\repos\rav\rev\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BA3E81-4ABD-4837-B435-364F3DEDE40B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F534875E-D6ED-4307-8665-856465E6EF17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAV" sheetId="1" r:id="rId1"/>
     <sheet name="Reportes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
   <si>
     <t>Tabla con los datos generales de los usuarios del sistema</t>
   </si>
@@ -353,6 +362,12 @@
   </si>
   <si>
     <t>Estado de atención del resultado: 1 generado, 2 entregado, 3 devuelto, 4 confirmado</t>
+  </si>
+  <si>
+    <t>Enlistar todas las aplicacios y nos va a decir cuantos resultados tiene cada aplicación, inluyendo 0</t>
+  </si>
+  <si>
+    <t>SELECT aplicaciones.id_aplicacion, aplicada,version,count(resultados.id_aplicacion) as total from aplicaciones LEFT JOIN resultados ON APLICACIONES.ID_APLICACION=resultados.id_aplicacion GROUP BY aplicaciones.id_aplicacion;</t>
   </si>
 </sst>
 </file>
@@ -4275,8 +4290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="B36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6400,10 +6415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6412,12 +6427,12 @@
     <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6425,7 +6440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6433,7 +6448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6441,7 +6456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6449,15 +6464,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6465,7 +6486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6473,7 +6494,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6481,7 +6502,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6489,7 +6510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6497,7 +6518,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6505,7 +6526,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6513,7 +6534,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6521,7 +6542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6529,7 +6550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
